--- a/problem/BUG汇总.xlsx
+++ b/problem/BUG汇总.xlsx
@@ -344,7 +344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,9 +367,6 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -703,7 +700,7 @@
   <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -738,70 +735,70 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13">
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
+    <row r="3" spans="1:7" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13">
+    <row r="4" spans="1:7" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>53</v>
       </c>
     </row>
@@ -843,26 +840,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+    <row r="7" spans="1:7" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -904,24 +901,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="14" t="s">
         <v>53</v>
       </c>
     </row>

--- a/problem/BUG汇总.xlsx
+++ b/problem/BUG汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,10 @@
   </si>
   <si>
     <t>待确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +704,7 @@
   <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -962,24 +966,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+    <row r="13" spans="1:7" s="15" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="13" t="s">
         <v>50</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/problem/BUG汇总.xlsx
+++ b/problem/BUG汇总.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,139 +118,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>直接绑定单位信息，单位信息包括所有的树的内容，不分父子节点。员工最后一次调动时，将工作单位和工作岗位信息直接维护到员工基本信息表中（需审批）。（实现：如果父节点为0，直接更新id，若父节点不为0，工作单位信息显示父节点信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有操作员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有操作员，页面都有修改密码权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除admin外，其他操作员只能修改自己的账户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工照片添加时，显示的不能自动调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传自动调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工职级内只有“普通员工”“中层正职”“中层副职”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加“高层领导”，“其他”，或不绑定数据，直接变为文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有查询页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入姓名查询，系统报错。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增员工页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增员工时，未选择树时，系统不提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增员工时，未选择树时，系统自动提醒“请选择单位”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像未上传时，显示为“员工未上传头像”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有信息页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询时，系统若没有信息，信息给予提示“没有该员工相关信息”，比如工作经历为空时，页面显示统若没有信息，信息给予提示“没有该员工相关信息”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合查询页面和通过姓名查询时，文本框缩小一半或在一行中显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作经历页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>员工工作调动时，保存后，原有的已审核信息mark自动变为未提报。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>直接绑定单位信息，单位信息包括所有的树的内容，不分父子节点。员工最后一次调动时，将工作单位和工作岗位信息直接维护到员工基本信息表中（需审批）。（实现：如果父节点为0，直接更新id，若父节点不为0，工作单位信息显示父节点信息）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有操作员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有操作员，页面都有修改密码权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除admin外，其他操作员只能修改自己的账户密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>急</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工照片添加时，显示的不能自动调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传自动调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工职级内只有“普通员工”“中层正职”“中层副职”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加“高层领导”，“其他”，或不绑定数据，直接变为文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有查询页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入姓名查询，系统报错。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增员工页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增员工时，未选择树时，系统不提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增员工时，未选择树时，系统自动提醒“请选择单位”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像未上传时，显示为“员工未上传头像”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有信息页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询时，系统若没有信息，信息给予提示“没有该员工相关信息”，比如工作经历为空时，页面显示统若没有信息，信息给予提示“没有该员工相关信息”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合查询页面和通过姓名查询时，文本框缩小一半或在一行中显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓急</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平急</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,7 +427,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -489,7 +501,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -524,7 +535,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -700,14 +710,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G163"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="3" customWidth="1"/>
@@ -716,7 +726,7 @@
     <col min="5" max="5" width="30" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="37.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -733,13 +743,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -756,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -777,13 +787,13 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -800,13 +810,13 @@
         <v>13</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="39.75" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -823,10 +833,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="51.75" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -841,10 +851,10 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -861,13 +871,13 @@
         <v>21</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="117.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="117.75" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -881,189 +891,198 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="42.75" customHeight="1">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" s="15" customFormat="1" ht="42.75" customHeight="1">
       <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="43.5" customHeight="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="59.25" customHeight="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="15" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="15" customFormat="1" ht="48.75" customHeight="1">
       <c r="A13" s="12">
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="F13" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="48.75" customHeight="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="49.5" customHeight="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="84.75" customHeight="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="49.5" customHeight="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1071,7 +1090,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="27" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1079,7 +1098,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="27" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1087,7 +1106,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="27" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1095,7 +1114,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="27" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1103,7 +1122,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="27" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1111,7 +1130,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="27" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1119,7 +1138,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="27" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1127,7 +1146,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="27" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1135,7 +1154,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="27" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1143,7 +1162,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="27" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1151,7 +1170,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="27" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1159,7 +1178,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="27" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1167,7 +1186,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="27" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1175,7 +1194,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="27" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1183,7 +1202,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="27" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1191,7 +1210,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="14.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1199,7 +1218,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="14.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1207,7 +1226,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="14.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1215,7 +1234,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="14.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1223,7 +1242,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="14.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1231,7 +1250,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="14.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1239,7 +1258,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="14.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1247,7 +1266,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="14.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1255,7 +1274,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="14.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1263,7 +1282,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="14.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1271,7 +1290,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="14.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1279,7 +1298,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="14.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1287,7 +1306,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="14.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1295,7 +1314,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="14.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1303,7 +1322,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="14.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1311,7 +1330,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="14.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1319,7 +1338,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="14.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1327,7 +1346,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="14.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1335,7 +1354,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="14.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1343,7 +1362,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="14.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1351,7 +1370,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="14.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1359,7 +1378,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="14.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1367,7 +1386,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="14.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1375,7 +1394,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="14.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1383,7 +1402,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="14.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1391,7 +1410,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" ht="14.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1399,7 +1418,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" ht="14.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1407,7 +1426,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" ht="14.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1415,7 +1434,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" ht="14.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1423,7 +1442,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="14.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1431,7 +1450,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="14.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1439,7 +1458,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="14.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1447,7 +1466,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="14.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1455,7 +1474,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="14.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1463,7 +1482,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" ht="14.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1471,7 +1490,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" ht="14.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1479,7 +1498,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="14.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1487,7 +1506,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" ht="14.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1495,7 +1514,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" ht="14.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -1503,7 +1522,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="14.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -1511,7 +1530,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="14.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -1519,7 +1538,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="14.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -1527,7 +1546,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="14.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -1535,7 +1554,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="14.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -1543,7 +1562,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="14.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -1551,7 +1570,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="14.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -1559,7 +1578,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="14.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -1567,7 +1586,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="14.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -1575,7 +1594,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="14.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -1583,7 +1602,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="14.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -1591,7 +1610,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="14.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -1599,7 +1618,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" ht="14.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -1607,7 +1626,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" ht="14.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -1615,7 +1634,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" ht="14.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -1623,7 +1642,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" ht="14.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -1631,7 +1650,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" ht="14.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -1639,7 +1658,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" ht="14.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -1647,7 +1666,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" ht="14.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -1655,7 +1674,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" ht="14.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -1663,7 +1682,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" ht="14.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -1671,7 +1690,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" ht="14.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -1679,7 +1698,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" ht="14.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -1687,7 +1706,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" ht="14.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -1695,7 +1714,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" ht="14.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -1703,7 +1722,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" ht="14.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -1711,7 +1730,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" ht="14.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -1719,7 +1738,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" ht="14.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -1727,7 +1746,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" ht="14.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -1735,7 +1754,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" ht="14.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -1743,7 +1762,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" ht="14.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -1751,7 +1770,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" ht="14.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -1759,7 +1778,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" ht="14.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -1767,7 +1786,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" ht="14.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -1775,7 +1794,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" ht="14.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -1783,7 +1802,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" ht="14.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -1791,7 +1810,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" ht="14.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -1799,7 +1818,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" ht="14.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -1807,7 +1826,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" ht="14.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -1815,7 +1834,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" ht="14.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -1823,7 +1842,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" ht="14.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -1831,7 +1850,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" ht="14.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -1839,7 +1858,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" ht="14.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -1847,7 +1866,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" ht="14.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -1855,7 +1874,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" ht="14.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -1863,7 +1882,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" ht="14.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -1871,7 +1890,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" ht="14.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -1879,7 +1898,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" ht="14.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -1887,7 +1906,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" ht="14.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -1895,7 +1914,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" ht="14.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -1903,7 +1922,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" ht="14.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -1911,7 +1930,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" ht="14.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -1919,7 +1938,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" ht="14.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -1927,7 +1946,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" ht="14.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -1935,7 +1954,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" ht="14.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -1943,7 +1962,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" ht="14.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -1951,7 +1970,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" ht="14.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -1959,7 +1978,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" ht="14.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -1967,7 +1986,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" ht="14.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -1975,7 +1994,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" ht="14.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -1983,7 +2002,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" ht="14.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -1991,7 +2010,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" ht="14.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -1999,7 +2018,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" ht="14.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -2007,7 +2026,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" ht="14.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -2015,7 +2034,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" ht="14.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -2023,7 +2042,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" ht="14.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -2031,7 +2050,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" ht="14.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -2039,7 +2058,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" ht="14.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -2047,7 +2066,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" ht="14.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -2055,7 +2074,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" ht="14.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -2063,7 +2082,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" ht="14.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -2071,7 +2090,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" ht="14.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -2079,7 +2098,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" ht="14.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -2087,7 +2106,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" ht="14.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -2095,7 +2114,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" ht="14.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -2103,7 +2122,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" ht="14.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -2111,7 +2130,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" ht="14.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -2119,7 +2138,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" ht="14.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -2127,7 +2146,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" ht="14.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -2135,7 +2154,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" ht="14.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -2143,7 +2162,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" ht="14.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -2151,7 +2170,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" ht="14.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -2159,7 +2178,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" ht="14.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -2167,7 +2186,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" ht="14.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -2175,7 +2194,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" ht="14.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -2183,7 +2202,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" ht="14.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -2191,7 +2210,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" ht="14.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -2199,7 +2218,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" ht="14.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -2207,7 +2226,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" ht="14.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -2215,14 +2234,14 @@
       <c r="E161" s="4"/>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" ht="14.25">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
     </row>
-    <row r="163" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" ht="14.25">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -2237,12 +2256,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2251,12 +2270,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/problem/BUG汇总.xlsx
+++ b/problem/BUG汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,151 +106,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>密码维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有操作员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有操作员，页面都有修改密码权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除admin外，其他操作员只能修改自己的账户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>代码维护</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>员工头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工照片添加时，显示的不能自动调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传自动调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工职级内只有“普通员工”“中层正职”“中层副职”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加“高层领导”，“其他”，或不绑定数据，直接变为文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有查询页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入姓名查询，系统报错。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增员工页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增员工时，未选择树时，系统不提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增员工时，未选择树时，系统自动提醒“请选择单位”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像未上传时，显示为“员工未上传头像”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有信息页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询时，系统若没有信息，信息给予提示“没有该员工相关信息”，比如工作经历为空时，页面显示统若没有信息，信息给予提示“没有该员工相关信息”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合查询页面和通过姓名查询时，文本框缩小一半或在一行中显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>工作经历页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>员工工作调动时，保存后，原有的已审核信息mark自动变为未提报。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作经历页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>维护时，工作单位无法维护，数据未绑定。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>直接绑定单位信息，单位信息包括所有的树的内容，不分父子节点。员工最后一次调动时，将工作单位和工作岗位信息直接维护到员工基本信息表中（需审批）。（实现：如果父节点为0，直接更新id，若父节点不为0，工作单位信息显示父节点信息）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有操作员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有操作员，页面都有修改密码权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除admin外，其他操作员只能修改自己的账户密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>急</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工照片添加时，显示的不能自动调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传自动调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工职级内只有“普通员工”“中层正职”“中层副职”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加“高层领导”，“其他”，或不绑定数据，直接变为文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有查询页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入姓名查询，系统报错。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增员工页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增员工时，未选择树时，系统不提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增员工时，未选择树时，系统自动提醒“请选择单位”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像未上传时，显示为“员工未上传头像”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有信息页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询时，系统若没有信息，信息给予提示“没有该员工相关信息”，比如工作经历为空时，页面显示统若没有信息，信息给予提示“没有该员工相关信息”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合查询页面和通过姓名查询时，文本框缩小一半或在一行中显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓急</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平急</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作经历页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工工作调动时，保存后，原有的已审核信息mark自动变为未提报。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -360,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -411,6 +415,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -743,10 +750,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="27" customHeight="1">
@@ -766,10 +773,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="27" customHeight="1">
@@ -787,10 +794,10 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="15" customFormat="1" ht="27" customHeight="1">
@@ -810,10 +817,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.75" customHeight="1">
@@ -833,7 +840,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="51.75" customHeight="1">
@@ -851,7 +858,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="27" customHeight="1">
@@ -871,51 +878,60 @@
         <v>21</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="117.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="42.75" customHeight="1">
       <c r="A9" s="12">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -929,20 +945,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="43.5" customHeight="1">
@@ -950,19 +966,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="59.25" customHeight="1">
@@ -970,19 +986,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="15" customFormat="1" ht="48.75" customHeight="1">
@@ -990,22 +1006,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="48.75" customHeight="1">
@@ -1013,19 +1029,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="49.5" customHeight="1">
@@ -1033,17 +1049,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="84.75" customHeight="1">
@@ -1051,17 +1067,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="49.5" customHeight="1">
@@ -1069,17 +1085,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="27" customHeight="1">

--- a/problem/BUG汇总.xlsx
+++ b/problem/BUG汇总.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,111 +82,191 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>页面直接点击“已选导出EXCEL”，页面脚本错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“全部导出EXCEL”，页面出现脚本错误，无法导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击退出，页面无法正常退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出后，页面返回登录界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有操作员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有操作员，页面都有修改密码权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除admin外，其他操作员只能修改自己的账户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工照片添加时，显示的不能自动调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传自动调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工职级内只有“普通员工”“中层正职”“中层副职”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加“高层领导”，“其他”，或不绑定数据，直接变为文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有查询页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入姓名查询，系统报错。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增员工页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增员工时，未选择树时，系统不提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增员工时，未选择树时，系统自动提醒“请选择单位”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有信息页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合查询页面和通过姓名查询时，文本框缩小一半或在一行中显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作经历页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工工作调动时，保存后，原有的已审核信息mark自动变为未提报。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作经历页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护时，工作单位无法维护，数据未绑定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接绑定单位信息，单位信息包括所有的树的内容，不分父子节点。员工最后一次调动时，将工作单位和工作岗位信息直接维护到员工基本信息表中（需审批）。（实现：如果父节点为0，直接更新id，若父节点不为0，工作单位信息显示父节点信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像未上传时，显示为“员工未上传头像”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未选择内容时，直接点击“已选导出EXCEL”，页面提示“请选择需要导出的信息”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>页面直接点击“已选导出EXCEL”，页面脚本错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击“全部导出EXCEL”，页面出现脚本错误，无法导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击退出，页面无法正常退出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出后，页面返回登录界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有操作员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有操作员，页面都有修改密码权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除admin外，其他操作员只能修改自己的账户密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>急</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工照片添加时，显示的不能自动调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传自动调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工职级内只有“普通员工”“中层正职”“中层副职”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加“高层领导”，“其他”，或不绑定数据，直接变为文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有查询页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入姓名查询，系统报错。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增员工页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增员工时，未选择树时，系统不提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增员工时，未选择树时，系统自动提醒“请选择单位”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像未上传时，显示为“员工未上传头像”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有信息页面</t>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台数据传输无错误，需要确认后台不同环境下是否报错，我本机执行后台报类型无法转换（excel）的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -194,79 +274,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>综合查询页面和通过姓名查询时，文本框缩小一半或在一行中显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓急</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平急</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作经历页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工工作调动时，保存后，原有的已审核信息mark自动变为未提报。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>急</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作经历页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维护时，工作单位无法维护，数据未绑定。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接绑定单位信息，单位信息包括所有的树的内容，不分父子节点。员工最后一次调动时，将工作单位和工作岗位信息直接维护到员工基本信息表中（需审批）。（实现：如果父节点为0，直接更新id，若父节点不为0，工作单位信息显示父节点信息）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>急</t>
+    <r>
+      <t>前台已经锁定为4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:3,后台可考虑在图片上传时裁剪图片为4:3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发现问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +324,31 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -364,7 +422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -386,17 +444,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -413,11 +465,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,7 +507,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -508,6 +581,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -542,6 +616,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,23 +792,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="28" style="3" customWidth="1"/>
     <col min="5" max="5" width="30" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.5">
+    <row r="1" spans="1:13" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -750,355 +827,382 @@
         <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G2" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="13" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="C9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" s="13" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="13" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="13" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="C14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="16" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="39.75" customHeight="1">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="13" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="B16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="13" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="51.75" customHeight="1">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="B17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" ht="27" customHeight="1">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="117.75" customHeight="1">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" s="15" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="43.5" customHeight="1">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="59.25" customHeight="1">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="15" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="49.5" customHeight="1">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="D17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="84.75" customHeight="1">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="27" customHeight="1">
+      <c r="G17" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1106,7 +1210,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="27" customHeight="1">
+    <row r="19" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1114,7 +1218,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="27" customHeight="1">
+    <row r="20" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1122,7 +1226,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="27" customHeight="1">
+    <row r="21" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1130,7 +1234,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="27" customHeight="1">
+    <row r="22" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1138,7 +1242,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="27" customHeight="1">
+    <row r="23" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1146,7 +1250,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="27" customHeight="1">
+    <row r="24" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1154,7 +1258,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="27" customHeight="1">
+    <row r="25" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1162,7 +1266,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="27" customHeight="1">
+    <row r="26" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1170,7 +1274,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="27" customHeight="1">
+    <row r="27" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1178,7 +1282,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="27" customHeight="1">
+    <row r="28" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1186,7 +1290,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="27" customHeight="1">
+    <row r="29" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1194,7 +1298,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="27" customHeight="1">
+    <row r="30" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1202,7 +1306,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="27" customHeight="1">
+    <row r="31" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1210,7 +1314,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="27" customHeight="1">
+    <row r="32" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1218,7 +1322,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="27" customHeight="1">
+    <row r="33" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1226,7 +1330,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="14.25">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1234,7 +1338,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="14.25">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1242,7 +1346,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="14.25">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1250,7 +1354,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="14.25">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1258,7 +1362,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="14.25">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1266,7 +1370,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="14.25">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1274,7 +1378,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" ht="14.25">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1282,7 +1386,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="14.25">
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1290,7 +1394,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="14.25">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1298,7 +1402,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="14.25">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1306,7 +1410,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="14.25">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1314,7 +1418,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="14.25">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1322,7 +1426,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="14.25">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1330,7 +1434,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="14.25">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1338,7 +1442,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" ht="14.25">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1346,7 +1450,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" ht="14.25">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1354,7 +1458,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" ht="14.25">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1362,7 +1466,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" ht="14.25">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1370,7 +1474,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" ht="14.25">
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1378,7 +1482,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" ht="14.25">
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1386,7 +1490,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="14.25">
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1394,7 +1498,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" ht="14.25">
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1402,7 +1506,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" ht="14.25">
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1410,7 +1514,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" ht="14.25">
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1418,7 +1522,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" ht="14.25">
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1426,7 +1530,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" ht="14.25">
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1434,7 +1538,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" ht="14.25">
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1442,7 +1546,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" ht="14.25">
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1450,7 +1554,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" ht="14.25">
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1458,7 +1562,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" ht="14.25">
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1466,7 +1570,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" ht="14.25">
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1474,7 +1578,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" ht="14.25">
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1482,7 +1586,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" ht="14.25">
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1490,7 +1594,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" ht="14.25">
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1498,7 +1602,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" ht="14.25">
+    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1506,7 +1610,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" ht="14.25">
+    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1514,7 +1618,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" ht="14.25">
+    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1522,7 +1626,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" ht="14.25">
+    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1530,7 +1634,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" ht="14.25">
+    <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -1538,7 +1642,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" ht="14.25">
+    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -1546,7 +1650,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" ht="14.25">
+    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -1554,7 +1658,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" ht="14.25">
+    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -1562,7 +1666,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" ht="14.25">
+    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -1570,7 +1674,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" ht="14.25">
+    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -1578,7 +1682,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" ht="14.25">
+    <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -1586,7 +1690,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" ht="14.25">
+    <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -1594,7 +1698,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" ht="14.25">
+    <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -1602,7 +1706,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" ht="14.25">
+    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -1610,7 +1714,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" ht="14.25">
+    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -1618,7 +1722,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" ht="14.25">
+    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -1626,7 +1730,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" ht="14.25">
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -1634,7 +1738,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" ht="14.25">
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -1642,7 +1746,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" ht="14.25">
+    <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -1650,7 +1754,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" ht="14.25">
+    <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -1658,7 +1762,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" ht="14.25">
+    <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -1666,7 +1770,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" ht="14.25">
+    <row r="89" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -1674,7 +1778,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" ht="14.25">
+    <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -1682,7 +1786,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" ht="14.25">
+    <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -1690,7 +1794,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" ht="14.25">
+    <row r="92" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -1698,7 +1802,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6" ht="14.25">
+    <row r="93" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -1706,7 +1810,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" ht="14.25">
+    <row r="94" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -1714,7 +1818,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" ht="14.25">
+    <row r="95" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -1722,7 +1826,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" ht="14.25">
+    <row r="96" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -1730,7 +1834,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" ht="14.25">
+    <row r="97" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -1738,7 +1842,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" ht="14.25">
+    <row r="98" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -1746,7 +1850,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6" ht="14.25">
+    <row r="99" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -1754,7 +1858,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" ht="14.25">
+    <row r="100" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -1762,7 +1866,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" ht="14.25">
+    <row r="101" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -1770,7 +1874,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" ht="14.25">
+    <row r="102" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -1778,7 +1882,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" ht="14.25">
+    <row r="103" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -1786,7 +1890,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" ht="14.25">
+    <row r="104" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -1794,7 +1898,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6" ht="14.25">
+    <row r="105" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -1802,7 +1906,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" ht="14.25">
+    <row r="106" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -1810,7 +1914,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" ht="14.25">
+    <row r="107" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -1818,7 +1922,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" ht="14.25">
+    <row r="108" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -1826,7 +1930,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" ht="14.25">
+    <row r="109" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -1834,7 +1938,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" ht="14.25">
+    <row r="110" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -1842,7 +1946,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6" ht="14.25">
+    <row r="111" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -1850,7 +1954,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" ht="14.25">
+    <row r="112" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -1858,7 +1962,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" ht="14.25">
+    <row r="113" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -1866,7 +1970,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" ht="14.25">
+    <row r="114" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -1874,7 +1978,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" ht="14.25">
+    <row r="115" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -1882,7 +1986,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" ht="14.25">
+    <row r="116" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -1890,7 +1994,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="1:6" ht="14.25">
+    <row r="117" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -1898,7 +2002,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" ht="14.25">
+    <row r="118" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -1906,7 +2010,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" ht="14.25">
+    <row r="119" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -1914,7 +2018,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" ht="14.25">
+    <row r="120" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -1922,7 +2026,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" ht="14.25">
+    <row r="121" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -1930,7 +2034,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" ht="14.25">
+    <row r="122" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -1938,7 +2042,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="1:6" ht="14.25">
+    <row r="123" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -1946,7 +2050,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" ht="14.25">
+    <row r="124" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -1954,7 +2058,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" ht="14.25">
+    <row r="125" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -1962,7 +2066,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" ht="14.25">
+    <row r="126" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -1970,7 +2074,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" ht="14.25">
+    <row r="127" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -1978,7 +2082,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" ht="14.25">
+    <row r="128" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -1986,7 +2090,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="1:6" ht="14.25">
+    <row r="129" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -1994,7 +2098,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" ht="14.25">
+    <row r="130" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -2002,7 +2106,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" ht="14.25">
+    <row r="131" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -2010,7 +2114,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" ht="14.25">
+    <row r="132" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -2018,7 +2122,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" ht="14.25">
+    <row r="133" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -2026,7 +2130,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="1:6" ht="14.25">
+    <row r="134" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -2034,7 +2138,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" ht="14.25">
+    <row r="135" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -2042,7 +2146,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="1:6" ht="14.25">
+    <row r="136" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -2050,7 +2154,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="1:6" ht="14.25">
+    <row r="137" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -2058,7 +2162,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="1:6" ht="14.25">
+    <row r="138" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -2066,7 +2170,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="1:6" ht="14.25">
+    <row r="139" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -2074,7 +2178,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6" ht="14.25">
+    <row r="140" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -2082,7 +2186,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6" ht="14.25">
+    <row r="141" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -2090,7 +2194,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="1:6" ht="14.25">
+    <row r="142" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -2098,7 +2202,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="1:6" ht="14.25">
+    <row r="143" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -2106,7 +2210,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="1:6" ht="14.25">
+    <row r="144" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -2114,7 +2218,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:6" ht="14.25">
+    <row r="145" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -2122,7 +2226,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="1:6" ht="14.25">
+    <row r="146" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -2130,7 +2234,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="1:6" ht="14.25">
+    <row r="147" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -2138,7 +2242,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="1:6" ht="14.25">
+    <row r="148" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -2146,7 +2250,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="1:6" ht="14.25">
+    <row r="149" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -2154,7 +2258,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="1:6" ht="14.25">
+    <row r="150" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -2162,7 +2266,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="1:6" ht="14.25">
+    <row r="151" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -2170,7 +2274,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="1:6" ht="14.25">
+    <row r="152" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -2178,7 +2282,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="1:6" ht="14.25">
+    <row r="153" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -2186,7 +2290,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6" ht="14.25">
+    <row r="154" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -2194,7 +2298,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="1:6" ht="14.25">
+    <row r="155" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -2202,7 +2306,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="1:6" ht="14.25">
+    <row r="156" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -2210,7 +2314,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="1:6" ht="14.25">
+    <row r="157" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -2218,7 +2322,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="1:6" ht="14.25">
+    <row r="158" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -2226,7 +2330,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="1:6" ht="14.25">
+    <row r="159" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -2234,7 +2338,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="1:6" ht="14.25">
+    <row r="160" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -2242,7 +2346,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="1:6" ht="14.25">
+    <row r="161" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -2250,14 +2354,14 @@
       <c r="E161" s="4"/>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="1:6" ht="14.25">
+    <row r="162" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
     </row>
-    <row r="163" spans="1:6" ht="14.25">
+    <row r="163" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -2272,12 +2376,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2286,12 +2390,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
